--- a/public/formats/item_sets.xlsx
+++ b/public/formats/item_sets.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\codevofact\public\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C9199-54A4-4AE4-92EA-018586E0B386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF776C0-464B-40F0-BDEE-207418A9428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B035CE1E-E127-4C44-BEE9-C13F2469173F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 → Gravado operación onerosa</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
@@ -57,30 +91,15 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>kit 1</t>
-  </si>
-  <si>
-    <t>kit 2</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
     <t>Marca</t>
   </si>
   <si>
-    <t>Bebidas</t>
-  </si>
-  <si>
     <t>Adidas</t>
   </si>
   <si>
-    <t>Gaseosas</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
     <t>CODKIT1</t>
   </si>
   <si>
@@ -93,18 +112,6 @@
     <t>Nombre secundario</t>
   </si>
   <si>
-    <t>desc 1</t>
-  </si>
-  <si>
-    <t>desc 2</t>
-  </si>
-  <si>
-    <t>nombre sec 1</t>
-  </si>
-  <si>
-    <t>nombre sec 2</t>
-  </si>
-  <si>
     <t>Plataforma</t>
   </si>
   <si>
@@ -121,19 +128,59 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Kit 1</t>
+  </si>
+  <si>
+    <t>Kit 2</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Ivanna Almendariz</t>
+  </si>
+  <si>
+    <t>Desc 1</t>
+  </si>
+  <si>
+    <t>Desc 2</t>
+  </si>
+  <si>
+    <t>Nombre sec 1</t>
+  </si>
+  <si>
+    <t>Nombre sec 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,12 +486,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -458,8 +503,8 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -485,30 +530,30 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>20202020</v>
@@ -526,30 +571,30 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>51121703</v>
@@ -567,26 +612,27 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>